--- a/StructureDefinition-ext-R5-EvidenceReport.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1271,6 +1271,7 @@
   </si>
   <si>
     <t>Element `EvidenceReport.relatesTo.target.resource` is part of an existing definition because parent element `EvidenceReport.relatesTo.target` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.relatesTo.target.resource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `EvidenceReport.relatesTo.target.resource` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-EvidenceReport.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1322,6 +1322,501 @@
   </si>
   <si>
     <t>Extension.extension:section.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Label for section (e.g. for ToC)</t>
+  </si>
+  <si>
+    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
+  </si>
+  <si>
+    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section.</t>
+  </si>
+  <si>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized. Element `EvidenceReport.section.title` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.title` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:title.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:title.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:title.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:title.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>Classification of section (recommended)</t>
+  </si>
+  <si>
+    <t>A code identifying the kind of content contained within the section. This should be consistent with the section title.</t>
+  </si>
+  <si>
+    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   
+If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
+  </si>
+  <si>
+    <t>Provides computable standardized labels to sections within the document. Element `EvidenceReport.section.focus` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.focus` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focus.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focus.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focus.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focus.value[x]</t>
+  </si>
+  <si>
+    <t>Evidence Report Section Type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-evidence-report-section-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focusReference</t>
+  </si>
+  <si>
+    <t>focusReference</t>
+  </si>
+  <si>
+    <t>Classification of section by Resource</t>
+  </si>
+  <si>
+    <t>A definitional Resource identifying the kind of content contained within the section. This should be consistent with the section title.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceReport.section.focusReference` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.focusReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceReport.section.focusReference` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focusReference.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focusReference.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focusReference.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:focusReference.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:author</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the section</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in this section, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content. Element `EvidenceReport.section.author` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceReport.section.author` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:author.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:author.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:author.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:author.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Text summary of the section, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains the attested content of the section, used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is peferred to contain sufficient detail to make it acceptable for a human to just read the narrative.</t>
+  </si>
+  <si>
+    <t>Document profiles may define what content should be represented in the narrative.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceReport.section.text` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.text` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:_datatype</t>
+  </si>
+  <si>
+    <t>_datatype</t>
+  </si>
+  <si>
+    <t>DataType slice for a FHIR R5 `Narrative` value</t>
+  </si>
+  <si>
+    <t>Slice to indicate the presence of a R5 `Narrative` in FHIR R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:_datatype.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:_datatype.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:_datatype.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/_datatype</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:_datatype.value[x]</t>
+  </si>
+  <si>
+    <t>Must be: Narrative</t>
+  </si>
+  <si>
+    <t>Narrative</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>Element `Narrative.status` has is mapped to FHIR R4 element `Narrative.status`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:status.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:status.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:status.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:status.value[x]</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-narrative-status-for-R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:div</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Element `Narrative.div` has is mapped to FHIR R4 element `Narrative.div`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:div.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:div.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:div.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.extension:div.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:text.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>working | snapshot | changes</t>
+  </si>
+  <si>
+    <t>How the entry list was prepared - whether it is a working list that is suitable for being maintained on an ongoing basis, or if it represents a snapshot of a list of items from another source, or whether it is a prepared list where items may be marked as added, modified or deleted.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because a change list must not be misunderstood as a complete list.</t>
+  </si>
+  <si>
+    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them. Element `EvidenceReport.section.mode` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.mode` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:mode.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:mode.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:mode.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:mode.value[x]</t>
+  </si>
+  <si>
+    <t>The processing mode that applies to this section.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-mode-for-R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:orderedBy</t>
+  </si>
+  <si>
+    <t>orderedBy</t>
+  </si>
+  <si>
+    <t>Order of section entries</t>
+  </si>
+  <si>
+    <t>Specifies the order applied to the items in the section entries.</t>
+  </si>
+  <si>
+    <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
+  </si>
+  <si>
+    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries. Element `EvidenceReport.section.orderedBy` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.orderedBy` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:orderedBy.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:orderedBy.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:orderedBy.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:orderedBy.value[x]</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>What order applies to the items in the entry.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-order-for-R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryClassifier</t>
+  </si>
+  <si>
+    <t>entryClassifier</t>
+  </si>
+  <si>
+    <t>Extensible classifiers as content</t>
+  </si>
+  <si>
+    <t>Specifies any type of classification of the evidence report.</t>
+  </si>
+  <si>
+    <t>May be used in searching and filtering, or may be the key content of the report. Element `EvidenceReport.section.entryClassifier` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.entryClassifier` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryClassifier.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryClassifier.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryClassifier.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryClassifier.value[x]</t>
+  </si>
+  <si>
+    <t>Commonly used classifiers for evidence sets.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-evidence-classifier-code-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryReference</t>
+  </si>
+  <si>
+    <t>entryReference</t>
+  </si>
+  <si>
+    <t>Reference to resources as content</t>
+  </si>
+  <si>
+    <t>A reference to the actual resource from which the narrative in the section is derived.</t>
+  </si>
+  <si>
+    <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceReport.section.entryReference` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.entryReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceReport.section.entryReference` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryReference.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryReference.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryReference.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryReference.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryQuantity</t>
+  </si>
+  <si>
+    <t>entryQuantity</t>
+  </si>
+  <si>
+    <t>Quantity as content</t>
+  </si>
+  <si>
+    <t>Quantity as content.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceReport.section.entryQuantity` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.entryQuantity` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryQuantity.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryQuantity.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryQuantity.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:entryQuantity.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:emptyReason</t>
+  </si>
+  <si>
+    <t>emptyReason</t>
+  </si>
+  <si>
+    <t>Why the section is empty</t>
+  </si>
+  <si>
+    <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
+  </si>
+  <si>
+    <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
+  </si>
+  <si>
+    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists. Element `EvidenceReport.section.emptyReason` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.emptyReason` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:emptyReason.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:emptyReason.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:emptyReason.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:emptyReason.value[x]</t>
+  </si>
+  <si>
+    <t>If a section is empty, why it is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-empty-reason-for-R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:section</t>
+  </si>
+  <si>
+    <t>Nested Section</t>
+  </si>
+  <si>
+    <t>A nested sub-section within this section.</t>
+  </si>
+  <si>
+    <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceReport.section.section` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
+Element `EvidenceReport.section.section` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:section.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:section.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:section.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceReport.section</t>
+  </si>
+  <si>
+    <t>Extension.extension:section.extension:section.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:section.url</t>
@@ -1644,7 +2139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK151"/>
+  <dimension ref="A1:AK226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17028,7 +17523,7 @@
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -17050,14 +17545,12 @@
         <v>94</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>77</v>
@@ -17121,7 +17614,7 @@
         <v>84</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148">
@@ -17129,15 +17622,17 @@
         <v>420</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>86</v>
@@ -17152,24 +17647,26 @@
         <v>77</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>117</v>
+        <v>422</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>118</v>
+        <v>423</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -17211,30 +17708,30 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17245,7 +17742,7 @@
         <v>78</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>77</v>
@@ -17257,13 +17754,13 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -17314,7 +17811,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -17326,29 +17823,29 @@
         <v>77</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>120</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>77</v>
@@ -17360,16 +17857,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17377,7 +17874,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>77</v>
@@ -17407,42 +17904,42 @@
         <v>77</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>124</v>
+        <v>428</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17450,10 +17947,10 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>77</v>
@@ -17465,22 +17962,24 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>276</v>
+        <v>117</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N151" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17522,21 +18021,7890 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
+      <c r="AG152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK151" t="s" s="2">
+      <c r="AK152" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N158" s="2"/>
+      <c r="O158" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q162" s="2"/>
+      <c r="R162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q170" s="2"/>
+      <c r="R170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q171" s="2"/>
+      <c r="R171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q172" s="2"/>
+      <c r="R172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q173" s="2"/>
+      <c r="R173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q174" s="2"/>
+      <c r="R174" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q175" s="2"/>
+      <c r="R175" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O179" s="2"/>
+      <c r="P179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O184" s="2"/>
+      <c r="P184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="P193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q194" s="2"/>
+      <c r="R194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="P203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O207" s="2"/>
+      <c r="P207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="D208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N208" s="2"/>
+      <c r="O208" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q209" s="2"/>
+      <c r="R209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q210" s="2"/>
+      <c r="R210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q211" s="2"/>
+      <c r="R211" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q212" s="2"/>
+      <c r="R212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="D213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q213" s="2"/>
+      <c r="R213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q214" s="2"/>
+      <c r="R214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O215" s="2"/>
+      <c r="P215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q215" s="2"/>
+      <c r="R215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O216" s="2"/>
+      <c r="P216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q216" s="2"/>
+      <c r="R216" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O217" s="2"/>
+      <c r="P217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q217" s="2"/>
+      <c r="R217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q218" s="2"/>
+      <c r="R218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q219" s="2"/>
+      <c r="R219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q220" s="2"/>
+      <c r="R220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q221" s="2"/>
+      <c r="R221" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q222" s="2"/>
+      <c r="R222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O223" s="2"/>
+      <c r="P223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q223" s="2"/>
+      <c r="R223" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O225" s="2"/>
+      <c r="P225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK226" t="s" s="2">
         <v>121</v>
       </c>
     </row>

--- a/StructureDefinition-ext-R5-EvidenceReport.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,15 +446,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:useContext</t>
   </si>
   <si>
@@ -553,7 +544,7 @@
     <t>Extension.extension:citeAs.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
 markdown</t>
   </si>
   <si>
@@ -594,7 +585,7 @@
     <t>The kind of report, such as grouping of classifiers, search results, or human-compiled expression.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-evidence-report-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:note</t>
@@ -761,7 +752,7 @@
     <t>Evidence focus characteristic code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-focus-characteristic-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-focus-characteristic-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:value</t>
@@ -795,7 +786,7 @@
     <t>Extension.extension:subject.extension:characteristic.extension:value.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 CodeableConceptbooleanQuantityRange</t>
   </si>
   <si>
@@ -1145,10 +1136,13 @@
     <t>Extension.extension:relatesTo.extension:code.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The type of relationship between reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-report-relation-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-report-relation-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target</t>
@@ -1287,7 +1281,7 @@
     <t>Extension.extension:relatesTo.extension:target.extension:resource.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1390,7 +1384,7 @@
     <t>Evidence Report Section Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-evidence-report-section-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-section-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:focusReference</t>
@@ -1448,7 +1442,7 @@
     <t>Extension.extension:section.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1534,12 +1528,6 @@
     <t>Extension.extension:section.extension:text.extension:status.value[x]</t>
   </si>
   <si>
-    <t>The status of a resource narrative.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-narrative-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:section.extension:text.extension:div</t>
   </si>
   <si>
@@ -1607,12 +1595,6 @@
     <t>Extension.extension:section.extension:mode.value[x]</t>
   </si>
   <si>
-    <t>The processing mode that applies to this section.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:section.extension:orderedBy</t>
   </si>
   <si>
@@ -1644,15 +1626,6 @@
     <t>Extension.extension:section.extension:orderedBy.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>What order applies to the items in the entry.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-order-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:section.extension:entryClassifier</t>
   </si>
   <si>
@@ -1684,7 +1657,7 @@
     <t>Commonly used classifiers for evidence sets.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-evidence-classifier-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-classifier-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:entryReference</t>
@@ -1780,12 +1753,6 @@
   </si>
   <si>
     <t>Extension.extension:section.extension:emptyReason.value[x]</t>
-  </si>
-  <si>
-    <t>If a section is empty, why it is empty.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-empty-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:section</t>
@@ -2173,7 +2140,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.9921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3620,13 +3587,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3664,13 +3631,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3695,16 +3662,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3773,7 +3740,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3876,7 +3843,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3981,7 +3948,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -4024,7 +3991,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -4086,7 +4053,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -4112,16 +4079,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4191,13 +4158,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4222,16 +4189,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4300,7 +4267,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4403,7 +4370,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4508,7 +4475,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4551,7 +4518,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4613,7 +4580,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4639,16 +4606,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4718,13 +4685,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4749,16 +4716,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4827,7 +4794,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4930,7 +4897,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -5035,7 +5002,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -5078,7 +5045,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5140,7 +5107,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -5166,16 +5133,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5245,13 +5212,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5276,14 +5243,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5352,7 +5319,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5455,7 +5422,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5560,7 +5527,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5603,7 +5570,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5665,7 +5632,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5691,13 +5658,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5724,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5768,13 +5735,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5799,14 +5766,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5875,7 +5842,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5978,7 +5945,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -6083,7 +6050,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -6126,7 +6093,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6188,7 +6155,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6214,13 +6181,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6291,13 +6258,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6322,14 +6289,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6398,7 +6365,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6501,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6606,7 +6573,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6649,7 +6616,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6711,7 +6678,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6737,13 +6704,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6814,13 +6781,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6845,16 +6812,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6923,7 +6890,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -7026,7 +6993,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -7129,13 +7096,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7160,14 +7127,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7236,10 +7203,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7339,10 +7306,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7442,13 +7409,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -7473,16 +7440,16 @@
         <v>94</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7551,10 +7518,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7654,10 +7621,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7759,10 +7726,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7802,7 +7769,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -7864,10 +7831,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7890,16 +7857,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7925,13 +7892,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7969,13 +7936,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8000,16 +7967,16 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8078,10 +8045,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8181,10 +8148,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8286,10 +8253,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8329,7 +8296,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8391,10 +8358,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8417,16 +8384,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8496,13 +8463,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8527,14 +8494,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8603,10 +8570,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8706,10 +8673,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8811,10 +8778,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8854,7 +8821,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8916,10 +8883,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8942,13 +8909,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9019,13 +8986,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -9050,14 +9017,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9126,10 +9093,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9229,10 +9196,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9334,10 +9301,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9377,7 +9344,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9439,10 +9406,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9465,13 +9432,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9542,10 +9509,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9585,7 +9552,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9647,10 +9614,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9673,13 +9640,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9750,13 +9717,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9781,14 +9748,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9857,10 +9824,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9960,10 +9927,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10065,10 +10032,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10108,7 +10075,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10170,10 +10137,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10196,13 +10163,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10273,7 +10240,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10316,7 +10283,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10378,7 +10345,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10404,13 +10371,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10481,13 +10448,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10512,16 +10479,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10590,7 +10557,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10693,7 +10660,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10798,7 +10765,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10841,7 +10808,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10870,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10932,13 +10899,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11008,13 +10975,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11039,16 +11006,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11117,7 +11084,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11220,7 +11187,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11325,7 +11292,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11368,7 +11335,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11430,7 +11397,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11456,16 +11423,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11535,13 +11502,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11566,16 +11533,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11644,7 +11611,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11747,7 +11714,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11852,7 +11819,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11895,7 +11862,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11957,7 +11924,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11983,16 +11950,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12062,13 +12029,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12093,16 +12060,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12171,7 +12138,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12274,7 +12241,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12379,7 +12346,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12422,7 +12389,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12484,7 +12451,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12510,16 +12477,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12589,13 +12556,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12620,16 +12587,16 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12698,7 +12665,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12801,7 +12768,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12906,7 +12873,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12949,7 +12916,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13011,7 +12978,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -13037,16 +13004,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13116,13 +13083,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13147,16 +13114,16 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13225,7 +13192,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13328,7 +13295,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13433,7 +13400,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -13476,7 +13443,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13538,7 +13505,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -13564,16 +13531,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13643,13 +13610,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13674,16 +13641,16 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13752,7 +13719,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>107</v>
@@ -13855,7 +13822,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>109</v>
@@ -13958,13 +13925,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13989,16 +13956,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14067,10 +14034,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14170,10 +14137,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14275,10 +14242,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14318,7 +14285,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14380,10 +14347,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14409,13 +14376,13 @@
         <v>136</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14441,13 +14408,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14485,13 +14452,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14516,14 +14483,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14592,10 +14559,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14695,10 +14662,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14798,10 +14765,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>101</v>
@@ -14829,14 +14796,14 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14905,10 +14872,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15008,10 +14975,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15113,10 +15080,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15218,10 +15185,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15247,10 +15214,10 @@
         <v>116</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15321,13 +15288,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15352,14 +15319,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15428,10 +15395,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15531,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15636,10 +15603,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15679,7 +15646,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15741,10 +15708,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15767,13 +15734,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15844,13 +15811,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15875,14 +15842,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15951,10 +15918,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16054,10 +16021,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16159,10 +16126,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16202,7 +16169,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16264,10 +16231,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16290,13 +16257,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16367,13 +16334,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16398,14 +16365,14 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16474,10 +16441,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16577,10 +16544,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16682,10 +16649,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16725,7 +16692,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16787,10 +16754,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16813,13 +16780,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16890,10 +16857,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16933,7 +16900,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16995,10 +16962,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17021,13 +16988,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17098,7 +17065,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>115</v>
@@ -17141,7 +17108,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17203,7 +17170,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -17229,13 +17196,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17306,13 +17273,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17337,14 +17304,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17413,7 +17380,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>107</v>
@@ -17516,7 +17483,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>109</v>
@@ -17619,13 +17586,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17650,16 +17617,16 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17728,10 +17695,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17831,10 +17798,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17936,10 +17903,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17979,7 +17946,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18041,10 +18008,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18070,13 +18037,13 @@
         <v>87</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -18146,13 +18113,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18177,16 +18144,16 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="O153" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18255,10 +18222,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18358,10 +18325,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18463,10 +18430,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18506,7 +18473,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18568,10 +18535,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18594,16 +18561,16 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18629,13 +18596,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18673,13 +18640,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18704,14 +18671,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18780,10 +18747,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18883,10 +18850,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18988,10 +18955,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19031,7 +18998,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19093,10 +19060,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19119,13 +19086,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19196,13 +19163,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19227,14 +19194,14 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19303,10 +19270,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19406,10 +19373,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19511,10 +19478,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19554,7 +19521,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19616,10 +19583,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19642,13 +19609,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19719,13 +19686,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19750,16 +19717,16 @@
         <v>94</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19828,10 +19795,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19931,10 +19898,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20034,13 +20001,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -20065,10 +20032,10 @@
         <v>94</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -20139,10 +20106,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20242,10 +20209,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20347,10 +20314,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20390,7 +20357,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20452,10 +20419,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20481,13 +20448,13 @@
         <v>87</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20495,7 +20462,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20557,10 +20524,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>127</v>
@@ -20588,14 +20555,14 @@
         <v>94</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20664,10 +20631,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20767,10 +20734,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20872,10 +20839,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20977,10 +20944,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21006,10 +20973,10 @@
         <v>136</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21036,13 +21003,13 @@
         <v>77</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>77</v>
@@ -21080,13 +21047,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21111,16 +21078,16 @@
         <v>94</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21189,10 +21156,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21292,10 +21259,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21397,10 +21364,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21440,7 +21407,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21502,10 +21469,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21531,13 +21498,13 @@
         <v>116</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -21607,10 +21574,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21650,7 +21617,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21712,10 +21679,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21738,13 +21705,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21815,13 +21782,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21846,16 +21813,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21924,10 +21891,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22027,10 +21994,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22132,10 +22099,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22175,7 +22142,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22237,10 +22204,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22266,13 +22233,13 @@
         <v>136</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22298,13 +22265,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>511</v>
+        <v>77</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -22342,13 +22309,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22373,16 +22340,16 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22451,10 +22418,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22554,10 +22521,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22659,10 +22626,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22702,7 +22669,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22764,10 +22731,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22790,16 +22757,16 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22825,13 +22792,13 @@
         <v>77</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>77</v>
@@ -22869,13 +22836,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -22900,14 +22867,14 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -22976,10 +22943,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23079,10 +23046,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23184,10 +23151,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23227,7 +23194,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23289,10 +23256,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23315,13 +23282,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23348,13 +23315,13 @@
         <v>77</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="Z202" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>77</v>
@@ -23392,13 +23359,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23423,16 +23390,16 @@
         <v>94</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23501,10 +23468,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23604,10 +23571,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23709,10 +23676,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23752,7 +23719,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23814,10 +23781,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23840,16 +23807,16 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -23919,13 +23886,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -23950,14 +23917,14 @@
         <v>94</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24026,10 +23993,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24129,10 +24096,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24234,10 +24201,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24277,7 +24244,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24339,10 +24306,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24365,13 +24332,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24442,13 +24409,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24473,16 +24440,16 @@
         <v>94</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24551,10 +24518,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24654,10 +24621,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24759,10 +24726,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24802,7 +24769,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24864,10 +24831,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24890,16 +24857,16 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -24925,13 +24892,13 @@
         <v>77</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>567</v>
+        <v>77</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>77</v>
@@ -24969,13 +24936,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25000,16 +24967,16 @@
         <v>94</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25078,10 +25045,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25181,10 +25148,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25286,10 +25253,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25329,7 +25296,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25391,10 +25358,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25417,13 +25384,13 @@
         <v>77</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -25494,7 +25461,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>115</v>
@@ -25537,7 +25504,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25599,7 +25566,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>123</v>
@@ -25625,13 +25592,13 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25833,13 +25800,13 @@
         <v>77</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>

--- a/StructureDefinition-ext-R5-EvidenceReport.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,6 +446,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:useContext</t>
   </si>
   <si>
@@ -544,7 +553,7 @@
     <t>Extension.extension:citeAs.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
 markdown</t>
   </si>
   <si>
@@ -585,7 +594,7 @@
     <t>The kind of report, such as grouping of classifiers, search results, or human-compiled expression.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:note</t>
@@ -665,8 +674,7 @@
     <t>May be used as an expression for search queries and search results</t>
   </si>
   <si>
-    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `BackboneElement`:1..1 -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Resource)`:0..1).
-Element `EvidenceReport.subject` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.id</t>
@@ -687,8 +695,7 @@
     <t>Characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.characteristic` is part of an existing definition because parent element `EvidenceReport.subject` requires a cross-version extension.
-Element `EvidenceReport.subject.characteristic` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.characteristic` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.id</t>
@@ -718,8 +725,7 @@
     <t>Example 1 is a Citation. Example 2 is a type of outcome. Example 3 is a specific outcome.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.characteristic.code` is part of an existing definition because parent element `EvidenceReport.subject.characteristic` requires a cross-version extension.
-Element `EvidenceReport.subject.characteristic.code` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.characteristic.code` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:code.id</t>
@@ -752,7 +758,7 @@
     <t>Evidence focus characteristic code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-focus-characteristic-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-focus-characteristic-code-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:value</t>
@@ -770,8 +776,7 @@
     <t>Example 1 is Citation #37. Example 2 is selecting clinical outcomes. Example 3 is 1-year mortality.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.characteristic.value[x]` is part of an existing definition because parent element `EvidenceReport.subject.characteristic` requires a cross-version extension.
-Element `EvidenceReport.subject.characteristic.value[x]` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.characteristic.value[x]` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:value.id</t>
@@ -786,7 +791,7 @@
     <t>Extension.extension:subject.extension:characteristic.extension:value.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 CodeableConceptbooleanQuantityRange</t>
   </si>
   <si>
@@ -802,8 +807,7 @@
     <t>Is used to express not the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.characteristic.exclude` is part of an existing definition because parent element `EvidenceReport.subject.characteristic` requires a cross-version extension.
-Element `EvidenceReport.subject.characteristic.exclude` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.characteristic.exclude` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:exclude.id</t>
@@ -834,8 +838,7 @@
     <t>Timeframe for the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.characteristic.period` is part of an existing definition because parent element `EvidenceReport.subject.characteristic` requires a cross-version extension.
-Element `EvidenceReport.subject.characteristic.period` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.characteristic.period` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:characteristic.extension:period.id</t>
@@ -885,8 +888,7 @@
     <t>Used for general notes and annotations not coded elsewhere.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.subject.note` is part of an existing definition because parent element `EvidenceReport.subject` requires a cross-version extension.
-Element `EvidenceReport.subject.note` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.subject.note` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subject.extension:note.id</t>
@@ -1120,8 +1122,7 @@
     <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.code` is part of an existing definition because parent element `EvidenceReport.relatesTo` requires a cross-version extension.
-Element `EvidenceReport.relatesTo.code` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.relatesTo.code` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:code.id</t>
@@ -1136,13 +1137,10 @@
     <t>Extension.extension:relatesTo.extension:code.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The type of relationship between reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-report-relation-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-report-relation-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target</t>
@@ -1157,8 +1155,7 @@
     <t>The target composition/document of this relationship.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.target` is part of an existing definition because parent element `EvidenceReport.relatesTo` requires a cross-version extension.
-Element `EvidenceReport.relatesTo.target` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.relatesTo.target` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target.id</t>
@@ -1176,8 +1173,7 @@
     <t>Target of the relationship URL.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.target.url` is part of an existing definition because parent element `EvidenceReport.relatesTo.target` requires a cross-version extension.
-Element `EvidenceReport.relatesTo.target.url` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.relatesTo.target.url` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target.extension:url.id</t>
@@ -1204,8 +1200,7 @@
     <t>Target of the relationship Identifier.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.target.identifier` is part of an existing definition because parent element `EvidenceReport.relatesTo.target` requires a cross-version extension.
-Element `EvidenceReport.relatesTo.target.identifier` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.relatesTo.target.identifier` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target.extension:identifier.id</t>
@@ -1232,8 +1227,7 @@
     <t>Target of the relationship Display.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.target.display` is part of an existing definition because parent element `EvidenceReport.relatesTo.target` requires a cross-version extension.
-Element `EvidenceReport.relatesTo.target.display` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.relatesTo.target.display` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:relatesTo.extension:target.extension:display.id</t>
@@ -1264,8 +1258,7 @@
     <t>Target of the relationship Resource reference.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.relatesTo.target.resource` is part of an existing definition because parent element `EvidenceReport.relatesTo.target` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.relatesTo.target.resource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.relatesTo.target.resource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `EvidenceReport.relatesTo.target.resource` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
@@ -1281,7 +1274,7 @@
     <t>Extension.extension:relatesTo.extension:target.extension:resource.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1333,8 +1326,7 @@
     <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section.</t>
   </si>
   <si>
-    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized. Element `EvidenceReport.section.title` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.title` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized. Element `EvidenceReport.section.title` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:title.id</t>
@@ -1365,8 +1357,7 @@
 If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
   </si>
   <si>
-    <t>Provides computable standardized labels to sections within the document. Element `EvidenceReport.section.focus` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.focus` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Provides computable standardized labels to sections within the document. Element `EvidenceReport.section.focus` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:focus.id</t>
@@ -1384,7 +1375,7 @@
     <t>Evidence Report Section Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-section-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-report-section-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:focusReference</t>
@@ -1399,8 +1390,7 @@
     <t>A definitional Resource identifying the kind of content contained within the section. This should be consistent with the section title.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.section.focusReference` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.focusReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.focusReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `EvidenceReport.section.focusReference` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
@@ -1425,8 +1415,7 @@
     <t>Identifies who is responsible for the information in this section, not necessarily who typed it in.</t>
   </si>
   <si>
-    <t>Identifies who is responsible for the content. Element `EvidenceReport.section.author` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Identifies who is responsible for the content. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `EvidenceReport.section.author` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
@@ -1442,7 +1431,7 @@
     <t>Extension.extension:section.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1461,8 +1450,7 @@
     <t>Document profiles may define what content should be represented in the narrative.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.section.text` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.text` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.section.text` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:text.id</t>
@@ -1513,7 +1501,7 @@
     <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
   </si>
   <si>
-    <t>Element `Narrative.status` has is mapped to FHIR R4 element `Narrative.status`, but has no comparisons.</t>
+    <t>Element `Narrative.status` is mapped to FHIR R4 element `Narrative.status` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:text.extension:status.id</t>
@@ -1528,6 +1516,12 @@
     <t>Extension.extension:section.extension:text.extension:status.value[x]</t>
   </si>
   <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:section.extension:text.extension:div</t>
   </si>
   <si>
@@ -1543,7 +1537,7 @@
     <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
   </si>
   <si>
-    <t>Element `Narrative.div` has is mapped to FHIR R4 element `Narrative.div`, but has no comparisons.</t>
+    <t>Element `Narrative.div` is mapped to FHIR R4 element `Narrative.div` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:text.extension:div.id</t>
@@ -1579,8 +1573,7 @@
     <t>This element is labeled as a modifier because a change list must not be misunderstood as a complete list.</t>
   </si>
   <si>
-    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them. Element `EvidenceReport.section.mode` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.mode` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them. Element `EvidenceReport.section.mode` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:mode.id</t>
@@ -1595,6 +1588,12 @@
     <t>Extension.extension:section.extension:mode.value[x]</t>
   </si>
   <si>
+    <t>The processing mode that applies to this section.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:section.extension:orderedBy</t>
   </si>
   <si>
@@ -1610,8 +1609,7 @@
     <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
   </si>
   <si>
-    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries. Element `EvidenceReport.section.orderedBy` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.orderedBy` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries. Element `EvidenceReport.section.orderedBy` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:orderedBy.id</t>
@@ -1626,6 +1624,15 @@
     <t>Extension.extension:section.extension:orderedBy.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>What order applies to the items in the entry.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:section.extension:entryClassifier</t>
   </si>
   <si>
@@ -1638,8 +1645,7 @@
     <t>Specifies any type of classification of the evidence report.</t>
   </si>
   <si>
-    <t>May be used in searching and filtering, or may be the key content of the report. Element `EvidenceReport.section.entryClassifier` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.entryClassifier` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>May be used in searching and filtering, or may be the key content of the report. Element `EvidenceReport.section.entryClassifier` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:entryClassifier.id</t>
@@ -1657,7 +1663,7 @@
     <t>Commonly used classifiers for evidence sets.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-classifier-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-classifier-code-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:entryReference</t>
@@ -1675,8 +1681,7 @@
     <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.section.entryReference` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.entryReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceReport.section.entryReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `EvidenceReport.section.entryReference` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
@@ -1704,8 +1709,7 @@
     <t>Quantity as content.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.section.entryQuantity` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.entryQuantity` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.section.entryQuantity` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:entryQuantity.id</t>
@@ -1739,8 +1743,7 @@
     <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
   </si>
   <si>
-    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists. Element `EvidenceReport.section.emptyReason` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.emptyReason` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists. Element `EvidenceReport.section.emptyReason` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:emptyReason.id</t>
@@ -1755,6 +1758,12 @@
     <t>Extension.extension:section.extension:emptyReason.value[x]</t>
   </si>
   <si>
+    <t>If a section is empty, why it is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:section.extension:section</t>
   </si>
   <si>
@@ -1767,8 +1776,7 @@
     <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
   </si>
   <si>
-    <t>Element `EvidenceReport.section.section` is part of an existing definition because parent element `EvidenceReport.section` requires a cross-version extension.
-Element `EvidenceReport.section.section` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
+    <t>Element `EvidenceReport.section.section` is not mapped to FHIR R4, since FHIR R5 `EvidenceReport` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:section.extension:section.id</t>
@@ -2140,7 +2148,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3587,13 +3595,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3631,13 +3639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3662,16 +3670,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3740,7 +3748,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3843,7 +3851,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3948,7 +3956,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3991,7 +3999,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -4053,7 +4061,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -4079,16 +4087,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4158,13 +4166,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4189,16 +4197,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4267,7 +4275,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4370,7 +4378,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4475,7 +4483,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4518,7 +4526,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4580,7 +4588,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4606,16 +4614,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4685,13 +4693,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4716,16 +4724,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4794,7 +4802,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4897,7 +4905,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -5002,7 +5010,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -5045,7 +5053,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5107,7 +5115,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -5133,16 +5141,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5212,13 +5220,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5243,14 +5251,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5319,7 +5327,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5422,7 +5430,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5527,7 +5535,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5570,7 +5578,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5632,7 +5640,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5658,13 +5666,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5691,13 +5699,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5735,13 +5743,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5766,14 +5774,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5842,7 +5850,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5945,7 +5953,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -6050,7 +6058,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -6093,7 +6101,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6155,7 +6163,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6181,13 +6189,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6258,13 +6266,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6289,14 +6297,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6365,7 +6373,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6468,7 +6476,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6573,7 +6581,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6616,7 +6624,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6678,7 +6686,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6704,13 +6712,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6781,13 +6789,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6812,16 +6820,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6890,7 +6898,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6993,7 +7001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -7096,13 +7104,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7127,14 +7135,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7203,10 +7211,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7306,10 +7314,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7409,13 +7417,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -7440,16 +7448,16 @@
         <v>94</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7518,10 +7526,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7621,10 +7629,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7726,10 +7734,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7769,7 +7777,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -7831,10 +7839,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7857,16 +7865,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7892,13 +7900,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7936,13 +7944,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -7967,16 +7975,16 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8045,10 +8053,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8148,10 +8156,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8253,10 +8261,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8296,7 +8304,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8358,10 +8366,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8384,16 +8392,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8463,13 +8471,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8494,14 +8502,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8570,10 +8578,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8673,10 +8681,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8778,10 +8786,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8821,7 +8829,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8883,10 +8891,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8909,13 +8917,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8986,13 +8994,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -9017,14 +9025,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9093,10 +9101,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9196,10 +9204,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9301,10 +9309,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9344,7 +9352,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9406,10 +9414,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9432,13 +9440,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9509,10 +9517,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9552,7 +9560,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9614,10 +9622,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9640,13 +9648,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9717,13 +9725,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9748,14 +9756,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9824,10 +9832,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9927,10 +9935,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10032,10 +10040,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10075,7 +10083,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10137,10 +10145,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10163,13 +10171,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10240,7 +10248,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10283,7 +10291,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10345,7 +10353,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10371,13 +10379,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10448,13 +10456,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10479,16 +10487,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10557,7 +10565,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10660,7 +10668,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10765,7 +10773,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10808,7 +10816,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10878,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10899,13 +10907,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10975,13 +10983,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11006,16 +11014,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11084,7 +11092,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11187,7 +11195,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11292,7 +11300,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11335,7 +11343,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11397,7 +11405,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11423,16 +11431,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11502,13 +11510,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11533,16 +11541,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11611,7 +11619,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11714,7 +11722,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11819,7 +11827,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11862,7 +11870,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11924,7 +11932,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11950,16 +11958,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12029,13 +12037,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12060,16 +12068,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12138,7 +12146,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12241,7 +12249,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12346,7 +12354,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12389,7 +12397,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12451,7 +12459,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12477,16 +12485,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12556,13 +12564,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12587,16 +12595,16 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12665,7 +12673,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12768,7 +12776,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12873,7 +12881,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12916,7 +12924,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12978,7 +12986,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -13004,16 +13012,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13083,13 +13091,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13114,16 +13122,16 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13192,7 +13200,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13295,7 +13303,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13400,7 +13408,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -13443,7 +13451,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13505,7 +13513,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -13531,16 +13539,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13610,13 +13618,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13641,16 +13649,16 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13719,7 +13727,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>107</v>
@@ -13822,7 +13830,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>109</v>
@@ -13925,13 +13933,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13956,16 +13964,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14034,10 +14042,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14137,10 +14145,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14242,10 +14250,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14285,7 +14293,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14347,10 +14355,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14376,13 +14384,13 @@
         <v>136</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14408,13 +14416,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14452,13 +14460,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14483,14 +14491,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14559,10 +14567,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14662,10 +14670,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14765,10 +14773,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>101</v>
@@ -14796,14 +14804,14 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14872,10 +14880,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14975,10 +14983,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15080,10 +15088,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15185,10 +15193,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15214,10 +15222,10 @@
         <v>116</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15288,13 +15296,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15319,14 +15327,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15395,10 +15403,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15498,10 +15506,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15603,10 +15611,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15646,7 +15654,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15708,10 +15716,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15734,13 +15742,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15811,13 +15819,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15842,14 +15850,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15918,10 +15926,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16021,10 +16029,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16126,10 +16134,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16169,7 +16177,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16231,10 +16239,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16257,13 +16265,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16334,13 +16342,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16365,14 +16373,14 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16441,10 +16449,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16544,10 +16552,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16649,10 +16657,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16692,7 +16700,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16754,10 +16762,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16780,13 +16788,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16857,10 +16865,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16900,7 +16908,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16962,10 +16970,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16988,13 +16996,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17065,7 +17073,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>115</v>
@@ -17108,7 +17116,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17170,7 +17178,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -17196,13 +17204,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17273,13 +17281,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17304,14 +17312,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17380,7 +17388,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>107</v>
@@ -17483,7 +17491,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>109</v>
@@ -17586,13 +17594,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17617,16 +17625,16 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17695,10 +17703,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17798,10 +17806,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17903,10 +17911,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17946,7 +17954,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18008,10 +18016,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18037,13 +18045,13 @@
         <v>87</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -18113,13 +18121,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18144,16 +18152,16 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18222,10 +18230,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18325,10 +18333,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18430,10 +18438,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18473,7 +18481,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18535,10 +18543,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18561,16 +18569,16 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18596,13 +18604,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18640,13 +18648,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18671,14 +18679,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18747,10 +18755,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18850,10 +18858,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18955,10 +18963,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18998,7 +19006,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19060,10 +19068,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19086,13 +19094,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19163,13 +19171,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19194,14 +19202,14 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19270,10 +19278,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19373,10 +19381,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19478,10 +19486,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19521,7 +19529,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19583,10 +19591,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19609,13 +19617,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19686,13 +19694,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19717,16 +19725,16 @@
         <v>94</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19795,10 +19803,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19898,10 +19906,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20001,13 +20009,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -20032,10 +20040,10 @@
         <v>94</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -20106,10 +20114,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20209,10 +20217,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20314,10 +20322,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20357,7 +20365,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20419,10 +20427,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20448,13 +20456,13 @@
         <v>87</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20462,7 +20470,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20524,10 +20532,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>127</v>
@@ -20555,14 +20563,14 @@
         <v>94</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20631,10 +20639,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20734,10 +20742,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20839,10 +20847,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20944,10 +20952,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20973,10 +20981,10 @@
         <v>136</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21003,13 +21011,13 @@
         <v>77</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>77</v>
@@ -21047,13 +21055,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21078,16 +21086,16 @@
         <v>94</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21156,10 +21164,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21259,10 +21267,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21364,10 +21372,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21407,7 +21415,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21469,10 +21477,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21498,13 +21506,13 @@
         <v>116</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -21574,10 +21582,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21617,7 +21625,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21679,10 +21687,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21705,13 +21713,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21782,13 +21790,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21813,16 +21821,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21891,10 +21899,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21994,10 +22002,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22099,10 +22107,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22142,7 +22150,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22204,10 +22212,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22233,13 +22241,13 @@
         <v>136</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22265,13 +22273,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>77</v>
+        <v>511</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -22309,13 +22317,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22340,16 +22348,16 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22418,10 +22426,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22521,10 +22529,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22626,10 +22634,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22669,7 +22677,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22731,10 +22739,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22757,16 +22765,16 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22792,13 +22800,13 @@
         <v>77</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>77</v>
@@ -22836,13 +22844,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -22867,14 +22875,14 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -22943,10 +22951,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23046,10 +23054,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23151,10 +23159,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23194,7 +23202,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23256,10 +23264,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23282,13 +23290,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23315,13 +23323,13 @@
         <v>77</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="Z202" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>77</v>
@@ -23359,13 +23367,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23390,16 +23398,16 @@
         <v>94</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23468,10 +23476,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23571,10 +23579,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23676,10 +23684,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23719,7 +23727,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23781,10 +23789,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23807,16 +23815,16 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -23886,13 +23894,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -23917,14 +23925,14 @@
         <v>94</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -23993,10 +24001,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24096,10 +24104,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24201,10 +24209,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24244,7 +24252,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24306,10 +24314,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24332,13 +24340,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24409,13 +24417,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24440,16 +24448,16 @@
         <v>94</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24518,10 +24526,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24621,10 +24629,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24726,10 +24734,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24769,7 +24777,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24831,10 +24839,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24857,16 +24865,16 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -24892,13 +24900,13 @@
         <v>77</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>77</v>
+        <v>567</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>77</v>
+        <v>568</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>77</v>
@@ -24936,13 +24944,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -24967,16 +24975,16 @@
         <v>94</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25045,10 +25053,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25148,10 +25156,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25253,10 +25261,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25296,7 +25304,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25358,10 +25366,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25384,13 +25392,13 @@
         <v>77</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -25461,7 +25469,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>115</v>
@@ -25504,7 +25512,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25566,7 +25574,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>123</v>
@@ -25592,13 +25600,13 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25800,13 +25808,13 @@
         <v>77</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
